--- a/tests/edb/data/pointsources.xlsx
+++ b/tests/edb/data/pointsources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t xml:space="preserve">facility_id</t>
   </si>
@@ -31,10 +31,10 @@
     <t xml:space="preserve">source_name</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lon</t>
   </si>
   <si>
     <t xml:space="preserve">timevar</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">activitycode3</t>
   </si>
   <si>
-    <t xml:space="preserve">height</t>
+    <t xml:space="preserve">chimney_height</t>
   </si>
   <si>
     <t xml:space="preserve">outer_diameter</t>
@@ -85,6 +85,9 @@
     <t xml:space="preserve">subst:PM10</t>
   </si>
   <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-a</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">val1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ton/year</t>
   </si>
   <si>
     <t xml:space="preserve">1-b</t>
@@ -137,11 +143,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -157,6 +164,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,8 +213,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -223,321 +243,339 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V6" activeCellId="0" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="0" t="n">
+      <c r="L2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>1</v>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0" t="n">
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>1</v>
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0" t="n">
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>1</v>
+      <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tests/edb/data/pointsources.xlsx
+++ b/tests/edb/data/pointsources.xlsx
@@ -40,13 +40,13 @@
     <t xml:space="preserve">timevar</t>
   </si>
   <si>
-    <t xml:space="preserve">activitycode1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activitycode2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activitycode3</t>
+    <t xml:space="preserve">activitycode_code_set1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activitycode_code_set2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activitycode_3</t>
   </si>
   <si>
     <t xml:space="preserve">chimney_height</t>
@@ -143,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,11 +164,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,16 +208,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,10 +237,10 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V6" activeCellId="0" sqref="V6"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -315,7 +306,7 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -368,7 +359,7 @@
       <c r="S2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -424,7 +415,7 @@
       <c r="U3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -474,7 +465,7 @@
       <c r="S4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -521,7 +512,7 @@
       <c r="S5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -574,7 +565,7 @@
       <c r="U6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/tests/edb/data/pointsources.xlsx
+++ b/tests/edb/data/pointsources.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">activitycode_code_set2</t>
   </si>
   <si>
-    <t xml:space="preserve">Activitycode_3</t>
+    <t xml:space="preserve">activitycode_3</t>
   </si>
   <si>
     <t xml:space="preserve">chimney_height</t>
@@ -237,10 +237,10 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/tests/edb/data/pointsources.xlsx
+++ b/tests/edb/data/pointsources.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">subst:PM10</t>
   </si>
   <si>
-    <t xml:space="preserve">unit</t>
+    <t xml:space="preserve">emission_unit</t>
   </si>
   <si>
     <t xml:space="preserve">1-a</t>
@@ -236,11 +236,11 @@
   </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/tests/edb/data/pointsources.xlsx
+++ b/tests/edb/data/pointsources.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">gas_speed</t>
   </si>
   <si>
-    <t xml:space="preserve">gas_temperature</t>
+    <t xml:space="preserve">gas_temperature[K]</t>
   </si>
   <si>
     <t xml:space="preserve">house_width</t>
@@ -237,10 +237,10 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
